--- a/data/trans_orig/IP05A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E23427-E070-45E6-9CFE-97E899D4DF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE773670-9C75-450A-8C10-AABF1AB84CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D75B4753-F3FF-4907-A083-08DBA32A00D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69AEFC55-EABE-4F42-A7C7-6D3BA828EAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="434">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -107,1222 +107,1240 @@
     <t>77,51%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>2,56%</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE002830-2013-4C37-87C2-EAF1720ACB30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6514CE-BDFF-472D-A64A-F35880F4790A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2501,10 +2519,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2537,13 @@
         <v>25780</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -2534,13 +2552,13 @@
         <v>31792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2549,13 +2567,13 @@
         <v>57571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2588,13 @@
         <v>3994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2585,13 +2603,13 @@
         <v>6620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -2600,13 +2618,13 @@
         <v>10614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2692,13 @@
         <v>592306</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>830</v>
@@ -2689,13 +2707,13 @@
         <v>554606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>1722</v>
@@ -2704,13 +2722,13 @@
         <v>1146911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2743,13 @@
         <v>109862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
@@ -2740,13 +2758,13 @@
         <v>104908</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M21" s="7">
         <v>319</v>
@@ -2755,13 +2773,13 @@
         <v>214770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2794,13 @@
         <v>18516</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -2791,13 +2809,13 @@
         <v>18514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -2806,13 +2824,13 @@
         <v>37029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,7 +2886,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8023BCA0-E8C6-4E7E-8601-5FE14E2B4184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46296A19-0BB0-4E00-909C-9AE97582607C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3210,13 +3228,13 @@
         <v>74230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>117</v>
@@ -3225,13 +3243,13 @@
         <v>80798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>220</v>
@@ -3240,13 +3258,13 @@
         <v>155029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3279,13 @@
         <v>9212</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3276,13 +3294,13 @@
         <v>10108</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3291,13 +3309,13 @@
         <v>19320</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3330,13 @@
         <v>2750</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3333,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3342,13 +3360,13 @@
         <v>3444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3434,13 @@
         <v>438511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H12" s="7">
         <v>583</v>
@@ -3431,13 +3449,13 @@
         <v>401805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>1210</v>
@@ -3446,13 +3464,13 @@
         <v>840317</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3485,13 @@
         <v>48209</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -3482,13 +3500,13 @@
         <v>43824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -3497,13 +3515,13 @@
         <v>92033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3536,13 @@
         <v>6978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3533,13 +3551,13 @@
         <v>4280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3548,13 +3566,13 @@
         <v>11258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3640,13 @@
         <v>146161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>200</v>
@@ -3637,13 +3655,13 @@
         <v>140999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>408</v>
@@ -3652,13 +3670,13 @@
         <v>287160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3691,13 @@
         <v>21592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3688,13 +3706,13 @@
         <v>18608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -3703,13 +3721,13 @@
         <v>40201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3742,13 @@
         <v>747</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3739,13 +3757,13 @@
         <v>6362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3754,13 +3772,13 @@
         <v>7109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3846,13 @@
         <v>659544</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>900</v>
@@ -3843,13 +3861,13 @@
         <v>623603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>1839</v>
@@ -3858,13 +3876,13 @@
         <v>1283147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3897,13 @@
         <v>79013</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -3894,13 +3912,13 @@
         <v>72540</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -3909,13 +3927,13 @@
         <v>151553</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>10475</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3945,13 +3963,13 @@
         <v>11337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -3960,13 +3978,13 @@
         <v>21812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4040,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A447F4-BEF2-4959-BBE0-2E152AE7540D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C82E72D-7370-4A0E-A7BF-A73CA37F0A0E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4059,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4348,13 +4366,13 @@
         <v>56483</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>74</v>
@@ -4363,13 +4381,13 @@
         <v>48806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -4378,13 +4396,13 @@
         <v>105290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4417,13 @@
         <v>8065</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4414,13 +4432,13 @@
         <v>7876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -4429,13 +4447,13 @@
         <v>15942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4468,13 @@
         <v>4066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4465,13 +4483,13 @@
         <v>2695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4480,13 +4498,13 @@
         <v>6761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4572,13 @@
         <v>408216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>594</v>
@@ -4569,28 +4587,28 @@
         <v>393946</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>1173</v>
       </c>
       <c r="N12" s="7">
-        <v>802163</v>
+        <v>802162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4623,13 @@
         <v>62535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -4620,13 +4638,13 @@
         <v>55076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -4635,13 +4653,13 @@
         <v>117611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4674,13 @@
         <v>15896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4671,13 +4689,13 @@
         <v>20325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -4686,10 +4704,10 @@
         <v>36221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>282</v>
@@ -4734,7 +4752,7 @@
         <v>1401</v>
       </c>
       <c r="N15" s="7">
-        <v>955995</v>
+        <v>955994</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4766,7 +4784,7 @@
         <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>224</v>
@@ -4817,7 +4835,7 @@
         <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4826,13 +4844,13 @@
         <v>16506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -4841,13 +4859,13 @@
         <v>40016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4880,13 @@
         <v>3305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4877,13 +4895,13 @@
         <v>4334</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -4892,10 +4910,10 @@
         <v>7639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>306</v>
@@ -4969,10 +4987,10 @@
         <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>892</v>
@@ -4981,28 +4999,28 @@
         <v>592902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>1781</v>
       </c>
       <c r="N20" s="7">
-        <v>1215138</v>
+        <v>1215139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5035,13 @@
         <v>94110</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>119</v>
@@ -5032,28 +5050,28 @@
         <v>79458</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
       </c>
       <c r="N21" s="7">
-        <v>173568</v>
+        <v>173569</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,10 +5086,10 @@
         <v>23267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>326</v>
@@ -5089,7 +5107,7 @@
         <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>75</v>
@@ -5098,13 +5116,13 @@
         <v>50621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5164,7 @@
         <v>2111</v>
       </c>
       <c r="N23" s="7">
-        <v>1439328</v>
+        <v>1439329</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5160,7 +5178,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5180,7 +5198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111819A4-DFE9-4E05-9685-F8B1885A4EE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6772AFCF-73F9-489F-9C39-89B740B9131B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5197,7 +5215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5486,13 +5504,13 @@
         <v>48857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5501,13 +5519,13 @@
         <v>46783</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>132</v>
@@ -5516,13 +5534,13 @@
         <v>95641</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,10 +5555,10 @@
         <v>5258</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>343</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>344</v>
@@ -5555,10 +5573,10 @@
         <v>345</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -5567,13 +5585,13 @@
         <v>7253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5606,13 @@
         <v>4115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5603,13 +5621,13 @@
         <v>2001</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5618,13 +5636,13 @@
         <v>6116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5710,13 @@
         <v>460259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>594</v>
@@ -5707,28 +5725,28 @@
         <v>407575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>1205</v>
       </c>
       <c r="N12" s="7">
-        <v>867834</v>
+        <v>867833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5761,13 @@
         <v>25564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -5758,13 +5776,13 @@
         <v>36866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -5773,13 +5791,13 @@
         <v>62430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5812,13 @@
         <v>4952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5809,13 +5827,13 @@
         <v>4793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5824,13 +5842,13 @@
         <v>9746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5890,7 @@
         <v>1297</v>
       </c>
       <c r="N15" s="7">
-        <v>940010</v>
+        <v>940009</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -5898,13 +5916,13 @@
         <v>157517</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -5913,13 +5931,13 @@
         <v>135000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>420</v>
@@ -5928,13 +5946,13 @@
         <v>292518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5967,13 @@
         <v>11100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5964,13 +5982,13 @@
         <v>9524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -5979,13 +5997,13 @@
         <v>20624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6018,13 @@
         <v>4159</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -6015,13 +6033,13 @@
         <v>5335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -6030,13 +6048,13 @@
         <v>9495</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6122,13 @@
         <v>666633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>862</v>
@@ -6119,13 +6137,13 @@
         <v>589359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>1757</v>
@@ -6134,13 +6152,13 @@
         <v>1255992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6173,13 @@
         <v>41922</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -6170,13 +6188,13 @@
         <v>48385</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>119</v>
@@ -6185,13 +6203,13 @@
         <v>90307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6224,13 @@
         <v>13227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6221,13 +6239,13 @@
         <v>12129</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -6236,13 +6254,13 @@
         <v>25356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,7 +6316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
